--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-03).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-03).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,14 +218,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>1. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IDX_MNG_03</t>
@@ -299,6 +291,10 @@
   </si>
   <si>
     <t>지수정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 지수 코드에대한 정보가 정상 출력 되는지 확인 한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,44 +596,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,20 +729,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>42419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>184457</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -759,46 +755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="1714500"/>
-          <a:ext cx="7905750" cy="4966007"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>5118407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371725" y="7486650"/>
-          <a:ext cx="7905750" cy="4966007"/>
+          <a:off x="1800225" y="1718819"/>
+          <a:ext cx="10363200" cy="4815331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,7 +1034,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,10 +1049,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1107,110 +1065,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1225,40 +1183,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1226,7 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1278,13 +1236,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -1302,13 +1260,13 @@
         <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1324,13 +1282,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1343,14 +1301,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1564,19 +1522,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1587,6 +1532,19 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,10 +1572,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1630,110 +1588,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1761,172 +1719,159 @@
         <v>31</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1943,6 +1888,19 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1990,58 +1948,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="E3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="A6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
@@ -2368,18 +2326,16 @@
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-03).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-03).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\BICNS\코스콤\단위테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\doc\단위테스트결과서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +291,10 @@
   </si>
   <si>
     <t xml:space="preserve">1. 지수 코드에대한 정보가 정상 출력 되는지 확인 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,9 +551,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -593,18 +590,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,27 +635,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,10 +1052,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1060,115 +1063,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="3" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1183,345 +1186,388 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="7" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1532,19 +1578,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,7 +1590,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1572,306 +1605,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="3" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1888,19 +1978,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35:J35"/>
     </sheetView>
   </sheetViews>
@@ -1927,8 +2004,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>47</v>
+      <c r="A1" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1943,63 +2020,63 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
@@ -2326,16 +2403,16 @@
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
@@ -2350,280 +2427,280 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
